--- a/Jogos_do_Dia/2023-07-13_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-13_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>League</t>
   </si>
@@ -130,6 +130,9 @@
     <t>Brazil Serie B</t>
   </si>
   <si>
+    <t>Mexico Liga MX</t>
+  </si>
+  <si>
     <t>14:30:00</t>
   </si>
   <si>
@@ -139,6 +142,9 @@
     <t>20:00:00</t>
   </si>
   <si>
+    <t>22:05:00</t>
+  </si>
+  <si>
     <t>Al Ahly</t>
   </si>
   <si>
@@ -148,6 +154,9 @@
     <t>Criciúma</t>
   </si>
   <si>
+    <t>Santos Laguna</t>
+  </si>
+  <si>
     <t>Zamalek</t>
   </si>
   <si>
@@ -155,6 +164,9 @@
   </si>
   <si>
     <t>Guarani</t>
+  </si>
+  <si>
+    <t>Atlas</t>
   </si>
 </sst>
 </file>
@@ -516,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI4"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,25 +649,25 @@
         <v>45120</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G2">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="H2">
         <v>3.85</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="J2">
         <v>1.05</v>
@@ -670,10 +682,10 @@
         <v>3.1</v>
       </c>
       <c r="N2">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O2">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="P2">
         <v>1.42</v>
@@ -744,25 +756,25 @@
         <v>45120</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G3">
-        <v>2.52</v>
+        <v>3.3</v>
       </c>
       <c r="H3">
-        <v>3.59</v>
+        <v>3.65</v>
       </c>
       <c r="I3">
-        <v>2.28</v>
+        <v>1.98</v>
       </c>
       <c r="J3">
         <v>1.02</v>
@@ -777,10 +789,10 @@
         <v>4.33</v>
       </c>
       <c r="N3">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="O3">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="P3">
         <v>1.3</v>
@@ -828,7 +840,7 @@
         <v>1.59</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AF3">
         <v>1.16</v>
@@ -851,25 +863,25 @@
         <v>45120</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G4">
-        <v>1.85</v>
+        <v>2.16</v>
       </c>
       <c r="H4">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="I4">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="J4">
         <v>1.09</v>
@@ -884,10 +896,10 @@
         <v>2.55</v>
       </c>
       <c r="N4">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="O4">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P4">
         <v>1.54</v>
@@ -926,28 +938,135 @@
         <v>3.13</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
+        <v>1.25</v>
+      </c>
+      <c r="AG4">
+        <v>1.52</v>
+      </c>
+      <c r="AH4">
+        <v>1.83</v>
+      </c>
+      <c r="AI4">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>2.3</v>
+      </c>
+      <c r="H5">
+        <v>3.28</v>
+      </c>
+      <c r="I5">
+        <v>2.84</v>
+      </c>
+      <c r="J5">
+        <v>1.04</v>
+      </c>
+      <c r="K5">
+        <v>13</v>
+      </c>
+      <c r="L5">
+        <v>1.22</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>1.75</v>
+      </c>
+      <c r="O5">
+        <v>1.95</v>
+      </c>
+      <c r="P5">
+        <v>1.36</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>1.67</v>
+      </c>
+      <c r="S5">
+        <v>2.1</v>
+      </c>
+      <c r="T5">
+        <v>1.38</v>
+      </c>
+      <c r="U5">
+        <v>1.25</v>
+      </c>
+      <c r="V5">
+        <v>1.65</v>
+      </c>
+      <c r="W5">
         <v>0</v>
       </c>
-      <c r="AG4">
+      <c r="X5">
         <v>0</v>
       </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
+      <c r="Y5">
+        <v>1.47</v>
+      </c>
+      <c r="Z5">
+        <v>1.56</v>
+      </c>
+      <c r="AA5">
+        <v>3.03</v>
+      </c>
+      <c r="AB5">
+        <v>1.75</v>
+      </c>
+      <c r="AC5">
+        <v>8</v>
+      </c>
+      <c r="AD5">
+        <v>2.44</v>
+      </c>
+      <c r="AE5">
+        <v>1.17</v>
+      </c>
+      <c r="AF5">
+        <v>1.35</v>
+      </c>
+      <c r="AG5">
+        <v>1.63</v>
+      </c>
+      <c r="AH5">
+        <v>2.06</v>
+      </c>
+      <c r="AI5">
+        <v>2.69</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-07-13_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-13_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -661,13 +661,13 @@
         <v>47</v>
       </c>
       <c r="G2">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="H2">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I2">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="J2">
         <v>1.05</v>
@@ -682,10 +682,10 @@
         <v>3.1</v>
       </c>
       <c r="N2">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="O2">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="P2">
         <v>1.42</v>
@@ -768,13 +768,13 @@
         <v>48</v>
       </c>
       <c r="G3">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H3">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I3">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="J3">
         <v>1.02</v>
@@ -789,10 +789,10 @@
         <v>4.33</v>
       </c>
       <c r="N3">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="O3">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="P3">
         <v>1.3</v>
@@ -875,13 +875,13 @@
         <v>49</v>
       </c>
       <c r="G4">
-        <v>2.16</v>
+        <v>1.85</v>
       </c>
       <c r="H4">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="I4">
-        <v>3.7</v>
+        <v>4.33</v>
       </c>
       <c r="J4">
         <v>1.09</v>
@@ -896,10 +896,10 @@
         <v>2.55</v>
       </c>
       <c r="N4">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="O4">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P4">
         <v>1.54</v>
@@ -947,7 +947,7 @@
         <v>3.4</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AF4">
         <v>1.25</v>
